--- a/Supervised_corpous.xlsx
+++ b/Supervised_corpous.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="173">
   <si>
     <t>Topic_Code</t>
   </si>
@@ -30,60 +30,24 @@
     <t>Question</t>
   </si>
   <si>
-    <t>What is Supervised learning</t>
-  </si>
-  <si>
-    <t>What is regression</t>
-  </si>
-  <si>
     <t>What is slope</t>
   </si>
   <si>
     <t>What is intercept</t>
   </si>
   <si>
-    <t xml:space="preserve">What is semi supervised learning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is Data split </t>
-  </si>
-  <si>
-    <t>What do you mean by the training of data</t>
-  </si>
-  <si>
-    <t>What do you mean by the testing of data</t>
-  </si>
-  <si>
     <t>What is the Validation of model</t>
   </si>
   <si>
-    <t>What is Feature scaling</t>
-  </si>
-  <si>
     <t>What is Model evalution</t>
   </si>
   <si>
-    <t>What is Curse of Dimensionality</t>
-  </si>
-  <si>
-    <t>How specific output links to Supervised learning</t>
-  </si>
-  <si>
     <t>What is confusion matrix</t>
   </si>
   <si>
-    <t>What is euclidean distance</t>
-  </si>
-  <si>
-    <t>What is Manhattan distance</t>
-  </si>
-  <si>
     <t>What is Mean Squared Error or MSE</t>
   </si>
   <si>
-    <t>What is Accuracy</t>
-  </si>
-  <si>
     <t>What is ROC or AUC curve</t>
   </si>
   <si>
@@ -93,9 +57,6 @@
     <t>What is Gradient descent</t>
   </si>
   <si>
-    <t>What is Cost Function</t>
-  </si>
-  <si>
     <t>What is F1 score</t>
   </si>
   <si>
@@ -111,18 +72,6 @@
     <t>What is True Negative Rate or TNR</t>
   </si>
   <si>
-    <t>What is train test split</t>
-  </si>
-  <si>
-    <t>How multicolinearity affect the model performance</t>
-  </si>
-  <si>
-    <t>What is Pearson's correalation coefficient</t>
-  </si>
-  <si>
-    <t>What is assumption of Linear Regression</t>
-  </si>
-  <si>
     <t>What is Sum Of Squared Error or SSE</t>
   </si>
   <si>
@@ -132,54 +81,27 @@
     <t>What is Toatal error or SST</t>
   </si>
   <si>
-    <t>What is Coeeficient Of determinant</t>
-  </si>
-  <si>
     <t>What is Adjusted R-square</t>
   </si>
   <si>
     <t>What is decision Boundary</t>
   </si>
   <si>
-    <t>What is Log loss</t>
-  </si>
-  <si>
     <t>What is predict proba</t>
   </si>
   <si>
-    <t>What is imbalance class problem</t>
-  </si>
-  <si>
-    <t>What is Bias Variance trade off</t>
-  </si>
-  <si>
     <t>What is Standadization</t>
   </si>
   <si>
     <t>What is Normalization</t>
   </si>
   <si>
-    <t>What is Posterior probability</t>
-  </si>
-  <si>
-    <t>What is Predictiving modelling</t>
-  </si>
-  <si>
     <t>Response</t>
   </si>
   <si>
     <t>Introduction</t>
   </si>
   <si>
-    <t xml:space="preserve">What do you mean by variance </t>
-  </si>
-  <si>
-    <t>What do you mean by bias</t>
-  </si>
-  <si>
-    <t>What is labeled data</t>
-  </si>
-  <si>
     <t>Types of Algorithm</t>
   </si>
   <si>
@@ -192,60 +114,21 @@
     <t>Logistic Regression</t>
   </si>
   <si>
-    <t>lasso regression</t>
-  </si>
-  <si>
-    <t>ridge regression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How model learns </t>
-  </si>
-  <si>
     <t xml:space="preserve">What is Target Variable </t>
   </si>
   <si>
-    <t>What is dependent</t>
-  </si>
-  <si>
-    <t>What is independent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> What is Predictor Variable</t>
-  </si>
-  <si>
     <t>Naïve Bayes Algorithm</t>
   </si>
   <si>
-    <t>Model Evalution Metrics</t>
-  </si>
-  <si>
     <t>k nearest neighbour</t>
   </si>
   <si>
-    <t>What is independent variable</t>
-  </si>
-  <si>
     <t>Preprocessing</t>
   </si>
   <si>
     <t>What is dependent variable</t>
   </si>
   <si>
-    <t>what is Predictor Variable</t>
-  </si>
-  <si>
-    <t>What is correlation</t>
-  </si>
-  <si>
-    <t>What is multicolineariity</t>
-  </si>
-  <si>
-    <t>What is covariance</t>
-  </si>
-  <si>
-    <t>what is feature selection</t>
-  </si>
-  <si>
     <t>AASKK04</t>
   </si>
   <si>
@@ -256,16 +139,440 @@
   </si>
   <si>
     <t>AASKK07</t>
+  </si>
+  <si>
+    <t>https://classeval.wordpress.com/introduction/basic-evaluation-measures/#:~:text=Specificity%20(True%20negative%20rate),whereas%20the%20worst%20is%200.0.</t>
+  </si>
+  <si>
+    <t>Matthews correlation coefficient</t>
+  </si>
+  <si>
+    <t>What is Specificity</t>
+  </si>
+  <si>
+    <t>What is sensitivity</t>
+  </si>
+  <si>
+    <t>matrices of Confusion Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is linear relationship </t>
+  </si>
+  <si>
+    <t>types of linear regression</t>
+  </si>
+  <si>
+    <t>what is simple linear regression</t>
+  </si>
+  <si>
+    <t>what is multiple linear regression</t>
+  </si>
+  <si>
+    <t>what is line of best fit</t>
+  </si>
+  <si>
+    <t>what is Linear Regression</t>
+  </si>
+  <si>
+    <t>what is residual analysis</t>
+  </si>
+  <si>
+    <t>What is correlation coefficient</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e86</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e87</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e88</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e89</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e90</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e91</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e92</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e93</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e94</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e95</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e96</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e97</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e98</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e99</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e100</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e101</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e102</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e103</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e104</t>
+  </si>
+  <si>
+    <t>Logistic regression</t>
+  </si>
+  <si>
+    <t>what is logistic regression</t>
+  </si>
+  <si>
+    <t>what is sigmoid function</t>
+  </si>
+  <si>
+    <t>different Types of Logistic Regression</t>
+  </si>
+  <si>
+    <t>Binary Logistic Regression</t>
+  </si>
+  <si>
+    <t>Multinomial Logistic Regression</t>
+  </si>
+  <si>
+    <t> Ordinal Logistic Regression</t>
+  </si>
+  <si>
+    <t>what is cost function</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/logistic-regression-detailed-overview-46c4da4303bc</t>
+  </si>
+  <si>
+    <t>knn algorithm</t>
+  </si>
+  <si>
+    <t>what is non parametric model</t>
+  </si>
+  <si>
+    <t>what is knn</t>
+  </si>
+  <si>
+    <t>what is knn in  basic</t>
+  </si>
+  <si>
+    <t>why knn is a lazy lerner</t>
+  </si>
+  <si>
+    <t>application of knn</t>
+  </si>
+  <si>
+    <t>pros and cons of knn</t>
+  </si>
+  <si>
+    <t>https://blog.usejournal.com/a-quick-introduction-to-k-nearest-neighbors-algorithm-62214cea29c7</t>
+  </si>
+  <si>
+    <t>https://blog.usejournal.com/a-quick-introduction-to-k-nearest-neighbors-algorithm-62214cea29c8</t>
+  </si>
+  <si>
+    <t>https://blog.usejournal.com/a-quick-introduction-to-k-nearest-neighbors-algorithm-62214cea29c9</t>
+  </si>
+  <si>
+    <t>https://blog.usejournal.com/a-quick-introduction-to-k-nearest-neighbors-algorithm-62214cea29c10</t>
+  </si>
+  <si>
+    <t>https://blog.usejournal.com/a-quick-introduction-to-k-nearest-neighbors-algorithm-62214cea29c11</t>
+  </si>
+  <si>
+    <t>https://blog.usejournal.com/a-quick-introduction-to-k-nearest-neighbors-algorithm-62214cea29c12</t>
+  </si>
+  <si>
+    <t>https://blog.usejournal.com/a-quick-introduction-to-k-nearest-neighbors-algorithm-62214cea29c13</t>
+  </si>
+  <si>
+    <t>what is naïve bayes classifier</t>
+  </si>
+  <si>
+    <t>application of naïve bayes classifier</t>
+  </si>
+  <si>
+    <t>uopn which theorem naïve bayes is based on</t>
+  </si>
+  <si>
+    <t>pros and cons of naïve bayes</t>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2017/09/naive-bayes-explained/</t>
+  </si>
+  <si>
+    <t>what type of algorithm is naïve bayes</t>
+  </si>
+  <si>
+    <t>naïve bayes</t>
+  </si>
+  <si>
+    <t>How Naive Bayes Algorithms works</t>
+  </si>
+  <si>
+    <t>Applications of Naive Bayes Algorithm</t>
+  </si>
+  <si>
+    <t>Steps to build a basic Naive Bayes Model</t>
+  </si>
+  <si>
+    <t>Tips to improve the power of Naive Bayes Model</t>
+  </si>
+  <si>
+    <t>what is gussian naïve bayes</t>
+  </si>
+  <si>
+    <t>what is multinomial naïve bayes</t>
+  </si>
+  <si>
+    <t>what is bernoulli naïve bayes</t>
+  </si>
+  <si>
+    <t>how conditional and posterior probability used in naïve bayes</t>
+  </si>
+  <si>
+    <t>svm</t>
+  </si>
+  <si>
+    <t>what is support vector machine</t>
+  </si>
+  <si>
+    <t>what is support vectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is hyper plane </t>
+  </si>
+  <si>
+    <t>how do we find the right hyperplane</t>
+  </si>
+  <si>
+    <t>what happens when there is no clear hyperpalne</t>
+  </si>
+  <si>
+    <t>pros and cons of svm</t>
+  </si>
+  <si>
+    <t>uses of svm</t>
+  </si>
+  <si>
+    <t>how to select svm kernels</t>
+  </si>
+  <si>
+    <t>https://www.kdnuggets.com/2016/07/support-vector-machines-simple-explanation.html</t>
+  </si>
+  <si>
+    <t>what is machine learning</t>
+  </si>
+  <si>
+    <t>types of machine learning</t>
+  </si>
+  <si>
+    <t>use cases of machine learning</t>
+  </si>
+  <si>
+    <t>what is the different types super vised learning</t>
+  </si>
+  <si>
+    <t>what is learning</t>
+  </si>
+  <si>
+    <t>what is testing</t>
+  </si>
+  <si>
+    <t>what is the process of super vised learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what are real life business cases </t>
+  </si>
+  <si>
+    <t>what are the different types of algorithm used in supervised learning</t>
+  </si>
+  <si>
+    <t>https://vinodsblog.com/2018/10/08/machine-learning-introduction-to-supervised-learning/</t>
+  </si>
+  <si>
+    <t>what are the different domain where supervised learning is used</t>
+  </si>
+  <si>
+    <t>how supervised learning works</t>
+  </si>
+  <si>
+    <t>what is semi supervised learning</t>
+  </si>
+  <si>
+    <t>what is supervised learning</t>
+  </si>
+  <si>
+    <t>what are the common examples of supervised learning</t>
+  </si>
+  <si>
+    <t>what is preprocessing</t>
+  </si>
+  <si>
+    <t>why preprocessing is needed</t>
+  </si>
+  <si>
+    <t>what is missing value imputation</t>
+  </si>
+  <si>
+    <t>what is feature encoding</t>
+  </si>
+  <si>
+    <t>how to do feature encoding</t>
+  </si>
+  <si>
+    <t>how to do one hot encoding</t>
+  </si>
+  <si>
+    <t>what is label encoder</t>
+  </si>
+  <si>
+    <t>how to split our data</t>
+  </si>
+  <si>
+    <t>what is feature scaling</t>
+  </si>
+  <si>
+    <t>assumption in linear regression</t>
+  </si>
+  <si>
+    <t>https://medium.com/datadriveninvestor/data-preprocessing-for-machine-learning-188e9eef1d2c</t>
+  </si>
+  <si>
+    <t>what are the assumption in linear regression</t>
+  </si>
+  <si>
+    <t>what is Homoscedasticity</t>
+  </si>
+  <si>
+    <t>what is multicolinearity</t>
+  </si>
+  <si>
+    <t>how multicolinearity affect performance</t>
+  </si>
+  <si>
+    <t>how to test multicolinearity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is Correlation matrix </t>
+  </si>
+  <si>
+    <t>what is Variance Inflation Factor (VIF)</t>
+  </si>
+  <si>
+    <t>what is Tolerance</t>
+  </si>
+  <si>
+    <t>what is Autocorrelation</t>
+  </si>
+  <si>
+    <t>how Autocorrelation affect performance</t>
+  </si>
+  <si>
+    <t>https://www.statisticssolutions.com/assumptions-of-linear-regression/</t>
+  </si>
+  <si>
+    <t>ML library</t>
+  </si>
+  <si>
+    <t>what are the type of library used in Machine learning</t>
+  </si>
+  <si>
+    <t>name the different library used</t>
+  </si>
+  <si>
+    <t>Numpy,pandas,sklearn,theano,tensorflow,keras,scipy,pytorch,seaborn,matplotlib</t>
+  </si>
+  <si>
+    <t>what are the various library in machine learning</t>
+  </si>
+  <si>
+    <t>formula of Linear regression</t>
+  </si>
+  <si>
+    <t>equation of linear regression</t>
+  </si>
+  <si>
+    <t>math of linear regression</t>
+  </si>
+  <si>
+    <t>formula for linear regression</t>
+  </si>
+  <si>
+    <t>https://www.statisticshowto.com/probability-and-statistics/regression-analysis/find-a-linear-regression-equation/</t>
+  </si>
+  <si>
+    <t>how to calculate slope of linear regression</t>
+  </si>
+  <si>
+    <t>how to calculate intercept of linear regression</t>
+  </si>
+  <si>
+    <t>https://theappsolutions.com/blog/development/machine-learning-algorithm-types/</t>
+  </si>
+  <si>
+    <t>Linear regression</t>
+  </si>
+  <si>
+    <t>support vector machine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF292929"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF595858"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,16 +595,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,18 +914,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" customWidth="1"/>
+    <col min="4" max="4" width="88.7109375" customWidth="1"/>
     <col min="10" max="10" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -616,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J1" s="3"/>
     </row>
@@ -625,10 +949,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>121</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -637,10 +964,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>122</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="J3" s="3"/>
     </row>
@@ -649,10 +979,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>134</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -661,10 +994,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>133</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -672,10 +1008,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>123</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="J6" s="3"/>
     </row>
@@ -684,10 +1023,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>124</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -696,10 +1038,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>132</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -707,10 +1052,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>125</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -718,10 +1066,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>126</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -729,10 +1080,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>127</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -741,10 +1095,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>128</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -752,10 +1109,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>129</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -763,10 +1123,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>131</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -774,10 +1137,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>135</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1">
@@ -785,10 +1151,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>61</v>
+        <v>136</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1">
@@ -796,10 +1165,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>6</v>
+        <v>137</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -807,10 +1179,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>138</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1">
@@ -818,10 +1193,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>7</v>
+        <v>139</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1">
@@ -829,10 +1207,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1">
@@ -840,10 +1221,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>64</v>
+        <v>141</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -851,10 +1235,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>142</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="J22" s="3"/>
     </row>
@@ -863,10 +1250,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>10</v>
+        <v>143</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1">
@@ -874,10 +1264,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>11</v>
+        <v>144</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1">
@@ -885,10 +1278,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -896,10 +1292,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>61</v>
+        <v>24</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="J26" s="3"/>
     </row>
@@ -908,10 +1307,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>63</v>
+        <v>25</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -920,512 +1322,1173 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="J28" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="D29" s="11" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="D30" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1">
       <c r="A31" s="3" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>72</v>
+        <v>34</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1">
+      <c r="A33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="3" customFormat="1">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="3" customFormat="1">
-      <c r="A39" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="3" customFormat="1">
-      <c r="A41" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="3" customFormat="1">
-      <c r="A42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D40" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>34</v>
+      <c r="B48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>55</v>
+      <c r="B49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>59</v>
+      <c r="B50" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="3" customFormat="1">
+      <c r="A51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="3" customFormat="1">
+      <c r="A52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="3" customFormat="1">
+      <c r="A53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="3" customFormat="1">
+      <c r="A54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="3" customFormat="1">
+      <c r="A55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>26</v>
+      <c r="B56" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" s="3" customFormat="1">
+      <c r="A57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>27</v>
+      <c r="B58" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>28</v>
+      <c r="A59" s="1"/>
+      <c r="B59" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J60" s="3"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>30</v>
+      <c r="A61" s="1"/>
+      <c r="B61" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>35</v>
+      <c r="A62" s="1"/>
+      <c r="B62" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>36</v>
+      <c r="A63" s="1"/>
+      <c r="B63" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="A64" s="1"/>
+      <c r="B64" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1"/>
+      <c r="B65" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3"/>
+      <c r="B66" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3"/>
+      <c r="B68" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3"/>
+      <c r="B69" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="B70" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="B71" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="B72" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="B74" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="B75" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="B76" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="3" t="s">
+    <row r="100" spans="2:4">
+      <c r="B100" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="D104" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D109" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="3"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="3"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="3"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="3"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="3"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="3"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="3"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3:D15" r:id="rId2" display="https://vinodsblog.com/2018/10/08/machine-learning-introduction-to-supervised-learning/"/>
+    <hyperlink ref="D34" r:id="rId3"/>
+    <hyperlink ref="D35:D52" r:id="rId4" display="https://towardsdatascience.com/linear-regression-detailed-view-ea73175f6e86"/>
+    <hyperlink ref="D53" r:id="rId5"/>
+    <hyperlink ref="D61" r:id="rId6"/>
+    <hyperlink ref="D54:D59" r:id="rId7" display="https://towardsdatascience.com/logistic-regression-detailed-overview-46c4da4303bc"/>
+    <hyperlink ref="D60" r:id="rId8"/>
+    <hyperlink ref="D62:D66" r:id="rId9" display="https://blog.usejournal.com/a-quick-introduction-to-k-nearest-neighbors-algorithm-62214cea29c7"/>
+    <hyperlink ref="D67" r:id="rId10" display="https://blog.usejournal.com/a-quick-introduction-to-k-nearest-neighbors-algorithm-62214cea29c7"/>
+    <hyperlink ref="D68" r:id="rId11"/>
+    <hyperlink ref="D69:D80" r:id="rId12" display="https://www.analyticsvidhya.com/blog/2017/09/naive-bayes-explained/"/>
+    <hyperlink ref="D81" r:id="rId13"/>
+    <hyperlink ref="D82:D88" r:id="rId14" display="https://www.kdnuggets.com/2016/07/support-vector-machines-simple-explanation.html"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17:D27" r:id="rId16" display="https://medium.com/datadriveninvestor/data-preprocessing-for-machine-learning-188e9eef1d2c"/>
+    <hyperlink ref="D89" r:id="rId17"/>
+    <hyperlink ref="D90:D98" r:id="rId18" display="https://www.statisticssolutions.com/assumptions-of-linear-regression/"/>
+    <hyperlink ref="D99" r:id="rId19" location=":~:text=Specificity%20(True%20negative%20rate),whereas%20the%20worst%20is%200.0." display="https://classeval.wordpress.com/introduction/basic-evaluation-measures/ - :~:text=Specificity%20(True%20negative%20rate),whereas%20the%20worst%20is%200.0."/>
+    <hyperlink ref="D113" r:id="rId20"/>
+    <hyperlink ref="D114:D115" r:id="rId21" display="https://www.statisticshowto.com/probability-and-statistics/regression-analysis/find-a-linear-regression-equation/"/>
+    <hyperlink ref="E115" r:id="rId22"/>
+    <hyperlink ref="D116" r:id="rId23"/>
+    <hyperlink ref="D117" r:id="rId24"/>
+    <hyperlink ref="E116" r:id="rId25"/>
+    <hyperlink ref="E117" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29:D33" r:id="rId28" display="https://theappsolutions.com/blog/development/machine-learning-algorithm-types/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
